--- a/config_12.01/fish_2d_fish_server.xlsx
+++ b/config_12.01/fish_2d_fish_server.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="group" sheetId="1" r:id="rId1"/>
@@ -302,7 +302,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="658" uniqueCount="382">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="650" uniqueCount="378">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1631,12 +1631,6 @@
     <t>166,</t>
   </si>
   <si>
-    <t>167,</t>
-  </si>
-  <si>
-    <t>168,</t>
-  </si>
-  <si>
     <t>话费鱼</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1647,12 +1641,6 @@
   <si>
     <t>"jing_bi",0,50,100</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>169,</t>
-  </si>
-  <si>
-    <t>170,</t>
   </si>
   <si>
     <t>"prop_web_chip_huafei",0,0.02,0.05</t>
@@ -1791,7 +1779,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1849,9 +1837,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -2139,10 +2124,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:W197"/>
+  <dimension ref="A1:W193"/>
   <sheetViews>
-    <sheetView topLeftCell="A169" workbookViewId="0">
-      <selection activeCell="K193" sqref="K193"/>
+    <sheetView tabSelected="1" topLeftCell="A169" workbookViewId="0">
+      <selection activeCell="K183" sqref="K183"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" outlineLevelCol="1" x14ac:dyDescent="0.2"/>
@@ -7297,15 +7282,15 @@
       <c r="C184" s="15" t="s">
         <v>364</v>
       </c>
-      <c r="H184" s="15">
+      <c r="H184">
         <f>SUM(_xlfn.IFNA(LOOKUP(Q184,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(R184,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(S184,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(T184,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(U184,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(V184,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(W184,use_fish!A:A,use_fish!D:D),0),)</f>
         <v>30</v>
       </c>
-      <c r="I184" s="15">
+      <c r="I184">
         <f>SUM(_xlfn.IFNA(LOOKUP(Q184,use_fish!A:A,use_fish!H:H),0),_xlfn.IFNA(LOOKUP(R184,use_fish!A:A,use_fish!H:H),0),_xlfn.IFNA(LOOKUP(S184,use_fish!A:A,use_fish!H:H),0),_xlfn.IFNA(LOOKUP(T184,use_fish!A:A,use_fish!H:H),0),_xlfn.IFNA(LOOKUP(U184,use_fish!A:A,use_fish!H:H),0),_xlfn.IFNA(LOOKUP(V184,use_fish!A:A,use_fish!H:H),0),_xlfn.IFNA(LOOKUP(W184,use_fish!A:A,use_fish!H:H),0),)</f>
         <v>30</v>
       </c>
-      <c r="J184" s="18">
+      <c r="J184" s="3">
         <f>SUM(_xlfn.IFNA(LOOKUP(Q184,use_fish!A:A,use_fish!J:J),0),_xlfn.IFNA(LOOKUP(R184,use_fish!A:A,use_fish!J:J),0),_xlfn.IFNA(LOOKUP(S184,use_fish!A:A,use_fish!J:J),0),_xlfn.IFNA(LOOKUP(T184,use_fish!A:A,use_fish!J:J),0),_xlfn.IFNA(LOOKUP(U184,use_fish!A:A,use_fish!J:J),0),_xlfn.IFNA(LOOKUP(V184,use_fish!A:A,use_fish!J:J),0),_xlfn.IFNA(LOOKUP(W184,use_fish!A:A,use_fish!J:J),0),)</f>
         <v>0</v>
       </c>
@@ -7323,15 +7308,15 @@
       <c r="C185" s="15" t="s">
         <v>365</v>
       </c>
-      <c r="H185" s="15">
+      <c r="H185">
         <f>SUM(_xlfn.IFNA(LOOKUP(Q185,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(R185,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(S185,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(T185,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(U185,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(V185,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(W185,use_fish!A:A,use_fish!D:D),0),)</f>
         <v>40</v>
       </c>
-      <c r="I185" s="15">
+      <c r="I185">
         <f>SUM(_xlfn.IFNA(LOOKUP(Q185,use_fish!A:A,use_fish!H:H),0),_xlfn.IFNA(LOOKUP(R185,use_fish!A:A,use_fish!H:H),0),_xlfn.IFNA(LOOKUP(S185,use_fish!A:A,use_fish!H:H),0),_xlfn.IFNA(LOOKUP(T185,use_fish!A:A,use_fish!H:H),0),_xlfn.IFNA(LOOKUP(U185,use_fish!A:A,use_fish!H:H),0),_xlfn.IFNA(LOOKUP(V185,use_fish!A:A,use_fish!H:H),0),_xlfn.IFNA(LOOKUP(W185,use_fish!A:A,use_fish!H:H),0),)</f>
         <v>40</v>
       </c>
-      <c r="J185" s="18">
+      <c r="J185" s="3">
         <f>SUM(_xlfn.IFNA(LOOKUP(Q185,use_fish!A:A,use_fish!J:J),0),_xlfn.IFNA(LOOKUP(R185,use_fish!A:A,use_fish!J:J),0),_xlfn.IFNA(LOOKUP(S185,use_fish!A:A,use_fish!J:J),0),_xlfn.IFNA(LOOKUP(T185,use_fish!A:A,use_fish!J:J),0),_xlfn.IFNA(LOOKUP(U185,use_fish!A:A,use_fish!J:J),0),_xlfn.IFNA(LOOKUP(V185,use_fish!A:A,use_fish!J:J),0),_xlfn.IFNA(LOOKUP(W185,use_fish!A:A,use_fish!J:J),0),)</f>
         <v>0</v>
       </c>
@@ -7349,15 +7334,15 @@
       <c r="C186" s="15" t="s">
         <v>366</v>
       </c>
-      <c r="H186" s="15">
+      <c r="H186">
         <f>SUM(_xlfn.IFNA(LOOKUP(Q186,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(R186,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(S186,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(T186,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(U186,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(V186,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(W186,use_fish!A:A,use_fish!D:D),0),)</f>
         <v>50</v>
       </c>
-      <c r="I186" s="15">
+      <c r="I186">
         <f>SUM(_xlfn.IFNA(LOOKUP(Q186,use_fish!A:A,use_fish!H:H),0),_xlfn.IFNA(LOOKUP(R186,use_fish!A:A,use_fish!H:H),0),_xlfn.IFNA(LOOKUP(S186,use_fish!A:A,use_fish!H:H),0),_xlfn.IFNA(LOOKUP(T186,use_fish!A:A,use_fish!H:H),0),_xlfn.IFNA(LOOKUP(U186,use_fish!A:A,use_fish!H:H),0),_xlfn.IFNA(LOOKUP(V186,use_fish!A:A,use_fish!H:H),0),_xlfn.IFNA(LOOKUP(W186,use_fish!A:A,use_fish!H:H),0),)</f>
         <v>50</v>
       </c>
-      <c r="J186" s="18">
+      <c r="J186" s="3">
         <f>SUM(_xlfn.IFNA(LOOKUP(Q186,use_fish!A:A,use_fish!J:J),0),_xlfn.IFNA(LOOKUP(R186,use_fish!A:A,use_fish!J:J),0),_xlfn.IFNA(LOOKUP(S186,use_fish!A:A,use_fish!J:J),0),_xlfn.IFNA(LOOKUP(T186,use_fish!A:A,use_fish!J:J),0),_xlfn.IFNA(LOOKUP(U186,use_fish!A:A,use_fish!J:J),0),_xlfn.IFNA(LOOKUP(V186,use_fish!A:A,use_fish!J:J),0),_xlfn.IFNA(LOOKUP(W186,use_fish!A:A,use_fish!J:J),0),)</f>
         <v>0</v>
       </c>
@@ -7375,15 +7360,15 @@
       <c r="C187" s="15" t="s">
         <v>367</v>
       </c>
-      <c r="H187" s="15">
+      <c r="H187">
         <f>SUM(_xlfn.IFNA(LOOKUP(Q187,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(R187,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(S187,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(T187,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(U187,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(V187,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(W187,use_fish!A:A,use_fish!D:D),0),)</f>
         <v>60</v>
       </c>
-      <c r="I187" s="15">
+      <c r="I187">
         <f>SUM(_xlfn.IFNA(LOOKUP(Q187,use_fish!A:A,use_fish!H:H),0),_xlfn.IFNA(LOOKUP(R187,use_fish!A:A,use_fish!H:H),0),_xlfn.IFNA(LOOKUP(S187,use_fish!A:A,use_fish!H:H),0),_xlfn.IFNA(LOOKUP(T187,use_fish!A:A,use_fish!H:H),0),_xlfn.IFNA(LOOKUP(U187,use_fish!A:A,use_fish!H:H),0),_xlfn.IFNA(LOOKUP(V187,use_fish!A:A,use_fish!H:H),0),_xlfn.IFNA(LOOKUP(W187,use_fish!A:A,use_fish!H:H),0),)</f>
         <v>60</v>
       </c>
-      <c r="J187" s="18">
+      <c r="J187" s="3">
         <f>SUM(_xlfn.IFNA(LOOKUP(Q187,use_fish!A:A,use_fish!J:J),0),_xlfn.IFNA(LOOKUP(R187,use_fish!A:A,use_fish!J:J),0),_xlfn.IFNA(LOOKUP(S187,use_fish!A:A,use_fish!J:J),0),_xlfn.IFNA(LOOKUP(T187,use_fish!A:A,use_fish!J:J),0),_xlfn.IFNA(LOOKUP(U187,use_fish!A:A,use_fish!J:J),0),_xlfn.IFNA(LOOKUP(V187,use_fish!A:A,use_fish!J:J),0),_xlfn.IFNA(LOOKUP(W187,use_fish!A:A,use_fish!J:J),0),)</f>
         <v>0</v>
       </c>
@@ -7401,15 +7386,15 @@
       <c r="C188" s="15" t="s">
         <v>368</v>
       </c>
-      <c r="H188" s="15">
+      <c r="H188">
         <f>SUM(_xlfn.IFNA(LOOKUP(Q188,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(R188,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(S188,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(T188,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(U188,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(V188,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(W188,use_fish!A:A,use_fish!D:D),0),)</f>
         <v>70</v>
       </c>
-      <c r="I188" s="15">
+      <c r="I188">
         <f>SUM(_xlfn.IFNA(LOOKUP(Q188,use_fish!A:A,use_fish!H:H),0),_xlfn.IFNA(LOOKUP(R188,use_fish!A:A,use_fish!H:H),0),_xlfn.IFNA(LOOKUP(S188,use_fish!A:A,use_fish!H:H),0),_xlfn.IFNA(LOOKUP(T188,use_fish!A:A,use_fish!H:H),0),_xlfn.IFNA(LOOKUP(U188,use_fish!A:A,use_fish!H:H),0),_xlfn.IFNA(LOOKUP(V188,use_fish!A:A,use_fish!H:H),0),_xlfn.IFNA(LOOKUP(W188,use_fish!A:A,use_fish!H:H),0),)</f>
         <v>70</v>
       </c>
-      <c r="J188" s="18">
+      <c r="J188" s="3">
         <f>SUM(_xlfn.IFNA(LOOKUP(Q188,use_fish!A:A,use_fish!J:J),0),_xlfn.IFNA(LOOKUP(R188,use_fish!A:A,use_fish!J:J),0),_xlfn.IFNA(LOOKUP(S188,use_fish!A:A,use_fish!J:J),0),_xlfn.IFNA(LOOKUP(T188,use_fish!A:A,use_fish!J:J),0),_xlfn.IFNA(LOOKUP(U188,use_fish!A:A,use_fish!J:J),0),_xlfn.IFNA(LOOKUP(V188,use_fish!A:A,use_fish!J:J),0),_xlfn.IFNA(LOOKUP(W188,use_fish!A:A,use_fish!J:J),0),)</f>
         <v>0</v>
       </c>
@@ -7427,15 +7412,15 @@
       <c r="C189" s="15" t="s">
         <v>369</v>
       </c>
-      <c r="H189" s="15">
+      <c r="H189">
         <f>SUM(_xlfn.IFNA(LOOKUP(Q189,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(R189,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(S189,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(T189,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(U189,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(V189,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(W189,use_fish!A:A,use_fish!D:D),0),)</f>
-        <v>60</v>
-      </c>
-      <c r="I189" s="15">
+        <v>75</v>
+      </c>
+      <c r="I189">
         <f>SUM(_xlfn.IFNA(LOOKUP(Q189,use_fish!A:A,use_fish!H:H),0),_xlfn.IFNA(LOOKUP(R189,use_fish!A:A,use_fish!H:H),0),_xlfn.IFNA(LOOKUP(S189,use_fish!A:A,use_fish!H:H),0),_xlfn.IFNA(LOOKUP(T189,use_fish!A:A,use_fish!H:H),0),_xlfn.IFNA(LOOKUP(U189,use_fish!A:A,use_fish!H:H),0),_xlfn.IFNA(LOOKUP(V189,use_fish!A:A,use_fish!H:H),0),_xlfn.IFNA(LOOKUP(W189,use_fish!A:A,use_fish!H:H),0),)</f>
-        <v>60</v>
-      </c>
-      <c r="J189" s="18">
+        <v>75</v>
+      </c>
+      <c r="J189" s="3">
         <f>SUM(_xlfn.IFNA(LOOKUP(Q189,use_fish!A:A,use_fish!J:J),0),_xlfn.IFNA(LOOKUP(R189,use_fish!A:A,use_fish!J:J),0),_xlfn.IFNA(LOOKUP(S189,use_fish!A:A,use_fish!J:J),0),_xlfn.IFNA(LOOKUP(T189,use_fish!A:A,use_fish!J:J),0),_xlfn.IFNA(LOOKUP(U189,use_fish!A:A,use_fish!J:J),0),_xlfn.IFNA(LOOKUP(V189,use_fish!A:A,use_fish!J:J),0),_xlfn.IFNA(LOOKUP(W189,use_fish!A:A,use_fish!J:J),0),)</f>
         <v>0</v>
       </c>
@@ -7453,15 +7438,15 @@
       <c r="C190" s="15" t="s">
         <v>370</v>
       </c>
-      <c r="H190" s="15">
+      <c r="H190">
         <f>SUM(_xlfn.IFNA(LOOKUP(Q190,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(R190,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(S190,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(T190,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(U190,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(V190,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(W190,use_fish!A:A,use_fish!D:D),0),)</f>
-        <v>60</v>
-      </c>
-      <c r="I190" s="15">
+        <v>150</v>
+      </c>
+      <c r="I190">
         <f>SUM(_xlfn.IFNA(LOOKUP(Q190,use_fish!A:A,use_fish!H:H),0),_xlfn.IFNA(LOOKUP(R190,use_fish!A:A,use_fish!H:H),0),_xlfn.IFNA(LOOKUP(S190,use_fish!A:A,use_fish!H:H),0),_xlfn.IFNA(LOOKUP(T190,use_fish!A:A,use_fish!H:H),0),_xlfn.IFNA(LOOKUP(U190,use_fish!A:A,use_fish!H:H),0),_xlfn.IFNA(LOOKUP(V190,use_fish!A:A,use_fish!H:H),0),_xlfn.IFNA(LOOKUP(W190,use_fish!A:A,use_fish!H:H),0),)</f>
-        <v>60</v>
-      </c>
-      <c r="J190" s="18">
+        <v>150</v>
+      </c>
+      <c r="J190" s="3">
         <f>SUM(_xlfn.IFNA(LOOKUP(Q190,use_fish!A:A,use_fish!J:J),0),_xlfn.IFNA(LOOKUP(R190,use_fish!A:A,use_fish!J:J),0),_xlfn.IFNA(LOOKUP(S190,use_fish!A:A,use_fish!J:J),0),_xlfn.IFNA(LOOKUP(T190,use_fish!A:A,use_fish!J:J),0),_xlfn.IFNA(LOOKUP(U190,use_fish!A:A,use_fish!J:J),0),_xlfn.IFNA(LOOKUP(V190,use_fish!A:A,use_fish!J:J),0),_xlfn.IFNA(LOOKUP(W190,use_fish!A:A,use_fish!J:J),0),)</f>
         <v>0</v>
       </c>
@@ -7479,15 +7464,15 @@
       <c r="C191" s="15" t="s">
         <v>371</v>
       </c>
-      <c r="H191" s="15">
+      <c r="H191">
         <f>SUM(_xlfn.IFNA(LOOKUP(Q191,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(R191,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(S191,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(T191,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(U191,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(V191,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(W191,use_fish!A:A,use_fish!D:D),0),)</f>
-        <v>60</v>
-      </c>
-      <c r="I191" s="15">
+        <v>250</v>
+      </c>
+      <c r="I191">
         <f>SUM(_xlfn.IFNA(LOOKUP(Q191,use_fish!A:A,use_fish!H:H),0),_xlfn.IFNA(LOOKUP(R191,use_fish!A:A,use_fish!H:H),0),_xlfn.IFNA(LOOKUP(S191,use_fish!A:A,use_fish!H:H),0),_xlfn.IFNA(LOOKUP(T191,use_fish!A:A,use_fish!H:H),0),_xlfn.IFNA(LOOKUP(U191,use_fish!A:A,use_fish!H:H),0),_xlfn.IFNA(LOOKUP(V191,use_fish!A:A,use_fish!H:H),0),_xlfn.IFNA(LOOKUP(W191,use_fish!A:A,use_fish!H:H),0),)</f>
-        <v>60</v>
-      </c>
-      <c r="J191" s="18">
+        <v>250</v>
+      </c>
+      <c r="J191" s="3">
         <f>SUM(_xlfn.IFNA(LOOKUP(Q191,use_fish!A:A,use_fish!J:J),0),_xlfn.IFNA(LOOKUP(R191,use_fish!A:A,use_fish!J:J),0),_xlfn.IFNA(LOOKUP(S191,use_fish!A:A,use_fish!J:J),0),_xlfn.IFNA(LOOKUP(T191,use_fish!A:A,use_fish!J:J),0),_xlfn.IFNA(LOOKUP(U191,use_fish!A:A,use_fish!J:J),0),_xlfn.IFNA(LOOKUP(V191,use_fish!A:A,use_fish!J:J),0),_xlfn.IFNA(LOOKUP(W191,use_fish!A:A,use_fish!J:J),0),)</f>
         <v>0</v>
       </c>
@@ -7495,25 +7480,25 @@
         <v>164</v>
       </c>
     </row>
-    <row r="192" spans="1:17" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:17" s="21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A192" s="15">
         <v>191</v>
       </c>
-      <c r="B192" s="15">
+      <c r="B192" s="21">
         <v>1</v>
       </c>
       <c r="C192" s="15" t="s">
         <v>372</v>
       </c>
-      <c r="H192" s="15">
+      <c r="H192">
         <f>SUM(_xlfn.IFNA(LOOKUP(Q192,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(R192,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(S192,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(T192,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(U192,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(V192,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(W192,use_fish!A:A,use_fish!D:D),0),)</f>
-        <v>60</v>
-      </c>
-      <c r="I192" s="15">
+        <v>75</v>
+      </c>
+      <c r="I192">
         <f>SUM(_xlfn.IFNA(LOOKUP(Q192,use_fish!A:A,use_fish!H:H),0),_xlfn.IFNA(LOOKUP(R192,use_fish!A:A,use_fish!H:H),0),_xlfn.IFNA(LOOKUP(S192,use_fish!A:A,use_fish!H:H),0),_xlfn.IFNA(LOOKUP(T192,use_fish!A:A,use_fish!H:H),0),_xlfn.IFNA(LOOKUP(U192,use_fish!A:A,use_fish!H:H),0),_xlfn.IFNA(LOOKUP(V192,use_fish!A:A,use_fish!H:H),0),_xlfn.IFNA(LOOKUP(W192,use_fish!A:A,use_fish!H:H),0),)</f>
-        <v>60</v>
-      </c>
-      <c r="J192" s="18">
+        <v>75</v>
+      </c>
+      <c r="J192" s="3">
         <f>SUM(_xlfn.IFNA(LOOKUP(Q192,use_fish!A:A,use_fish!J:J),0),_xlfn.IFNA(LOOKUP(R192,use_fish!A:A,use_fish!J:J),0),_xlfn.IFNA(LOOKUP(S192,use_fish!A:A,use_fish!J:J),0),_xlfn.IFNA(LOOKUP(T192,use_fish!A:A,use_fish!J:J),0),_xlfn.IFNA(LOOKUP(U192,use_fish!A:A,use_fish!J:J),0),_xlfn.IFNA(LOOKUP(V192,use_fish!A:A,use_fish!J:J),0),_xlfn.IFNA(LOOKUP(W192,use_fish!A:A,use_fish!J:J),0),)</f>
         <v>0</v>
       </c>
@@ -7521,134 +7506,30 @@
         <v>165</v>
       </c>
     </row>
-    <row r="193" spans="1:17" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:17" s="21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A193" s="15">
         <v>192</v>
       </c>
-      <c r="B193" s="15">
+      <c r="B193" s="21">
         <v>1</v>
       </c>
       <c r="C193" s="15" t="s">
         <v>373</v>
       </c>
-      <c r="H193" s="15">
+      <c r="H193">
         <f>SUM(_xlfn.IFNA(LOOKUP(Q193,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(R193,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(S193,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(T193,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(U193,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(V193,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(W193,use_fish!A:A,use_fish!D:D),0),)</f>
         <v>75</v>
       </c>
-      <c r="I193" s="15">
+      <c r="I193">
         <f>SUM(_xlfn.IFNA(LOOKUP(Q193,use_fish!A:A,use_fish!H:H),0),_xlfn.IFNA(LOOKUP(R193,use_fish!A:A,use_fish!H:H),0),_xlfn.IFNA(LOOKUP(S193,use_fish!A:A,use_fish!H:H),0),_xlfn.IFNA(LOOKUP(T193,use_fish!A:A,use_fish!H:H),0),_xlfn.IFNA(LOOKUP(U193,use_fish!A:A,use_fish!H:H),0),_xlfn.IFNA(LOOKUP(V193,use_fish!A:A,use_fish!H:H),0),_xlfn.IFNA(LOOKUP(W193,use_fish!A:A,use_fish!H:H),0),)</f>
         <v>75</v>
       </c>
-      <c r="J193" s="18">
+      <c r="J193" s="3">
         <f>SUM(_xlfn.IFNA(LOOKUP(Q193,use_fish!A:A,use_fish!J:J),0),_xlfn.IFNA(LOOKUP(R193,use_fish!A:A,use_fish!J:J),0),_xlfn.IFNA(LOOKUP(S193,use_fish!A:A,use_fish!J:J),0),_xlfn.IFNA(LOOKUP(T193,use_fish!A:A,use_fish!J:J),0),_xlfn.IFNA(LOOKUP(U193,use_fish!A:A,use_fish!J:J),0),_xlfn.IFNA(LOOKUP(V193,use_fish!A:A,use_fish!J:J),0),_xlfn.IFNA(LOOKUP(W193,use_fish!A:A,use_fish!J:J),0),)</f>
         <v>0</v>
       </c>
       <c r="Q193" s="20">
         <v>166</v>
-      </c>
-    </row>
-    <row r="194" spans="1:17" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A194" s="15">
-        <v>193</v>
-      </c>
-      <c r="B194" s="15">
-        <v>1</v>
-      </c>
-      <c r="C194" s="15" t="s">
-        <v>374</v>
-      </c>
-      <c r="H194" s="15">
-        <f>SUM(_xlfn.IFNA(LOOKUP(Q194,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(R194,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(S194,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(T194,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(U194,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(V194,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(W194,use_fish!A:A,use_fish!D:D),0),)</f>
-        <v>150</v>
-      </c>
-      <c r="I194" s="15">
-        <f>SUM(_xlfn.IFNA(LOOKUP(Q194,use_fish!A:A,use_fish!H:H),0),_xlfn.IFNA(LOOKUP(R194,use_fish!A:A,use_fish!H:H),0),_xlfn.IFNA(LOOKUP(S194,use_fish!A:A,use_fish!H:H),0),_xlfn.IFNA(LOOKUP(T194,use_fish!A:A,use_fish!H:H),0),_xlfn.IFNA(LOOKUP(U194,use_fish!A:A,use_fish!H:H),0),_xlfn.IFNA(LOOKUP(V194,use_fish!A:A,use_fish!H:H),0),_xlfn.IFNA(LOOKUP(W194,use_fish!A:A,use_fish!H:H),0),)</f>
-        <v>150</v>
-      </c>
-      <c r="J194" s="18">
-        <f>SUM(_xlfn.IFNA(LOOKUP(Q194,use_fish!A:A,use_fish!J:J),0),_xlfn.IFNA(LOOKUP(R194,use_fish!A:A,use_fish!J:J),0),_xlfn.IFNA(LOOKUP(S194,use_fish!A:A,use_fish!J:J),0),_xlfn.IFNA(LOOKUP(T194,use_fish!A:A,use_fish!J:J),0),_xlfn.IFNA(LOOKUP(U194,use_fish!A:A,use_fish!J:J),0),_xlfn.IFNA(LOOKUP(V194,use_fish!A:A,use_fish!J:J),0),_xlfn.IFNA(LOOKUP(W194,use_fish!A:A,use_fish!J:J),0),)</f>
-        <v>0</v>
-      </c>
-      <c r="Q194" s="20">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="195" spans="1:17" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A195" s="15">
-        <v>194</v>
-      </c>
-      <c r="B195" s="15">
-        <v>1</v>
-      </c>
-      <c r="C195" s="15" t="s">
-        <v>375</v>
-      </c>
-      <c r="H195" s="15">
-        <f>SUM(_xlfn.IFNA(LOOKUP(Q195,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(R195,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(S195,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(T195,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(U195,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(V195,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(W195,use_fish!A:A,use_fish!D:D),0),)</f>
-        <v>250</v>
-      </c>
-      <c r="I195" s="15">
-        <f>SUM(_xlfn.IFNA(LOOKUP(Q195,use_fish!A:A,use_fish!H:H),0),_xlfn.IFNA(LOOKUP(R195,use_fish!A:A,use_fish!H:H),0),_xlfn.IFNA(LOOKUP(S195,use_fish!A:A,use_fish!H:H),0),_xlfn.IFNA(LOOKUP(T195,use_fish!A:A,use_fish!H:H),0),_xlfn.IFNA(LOOKUP(U195,use_fish!A:A,use_fish!H:H),0),_xlfn.IFNA(LOOKUP(V195,use_fish!A:A,use_fish!H:H),0),_xlfn.IFNA(LOOKUP(W195,use_fish!A:A,use_fish!H:H),0),)</f>
-        <v>250</v>
-      </c>
-      <c r="J195" s="18">
-        <f>SUM(_xlfn.IFNA(LOOKUP(Q195,use_fish!A:A,use_fish!J:J),0),_xlfn.IFNA(LOOKUP(R195,use_fish!A:A,use_fish!J:J),0),_xlfn.IFNA(LOOKUP(S195,use_fish!A:A,use_fish!J:J),0),_xlfn.IFNA(LOOKUP(T195,use_fish!A:A,use_fish!J:J),0),_xlfn.IFNA(LOOKUP(U195,use_fish!A:A,use_fish!J:J),0),_xlfn.IFNA(LOOKUP(V195,use_fish!A:A,use_fish!J:J),0),_xlfn.IFNA(LOOKUP(W195,use_fish!A:A,use_fish!J:J),0),)</f>
-        <v>0</v>
-      </c>
-      <c r="Q195" s="20">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="196" spans="1:17" s="21" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A196" s="21">
-        <v>195</v>
-      </c>
-      <c r="B196" s="21">
-        <v>1</v>
-      </c>
-      <c r="C196" s="21" t="s">
-        <v>379</v>
-      </c>
-      <c r="H196" s="21">
-        <f>SUM(_xlfn.IFNA(LOOKUP(Q196,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(R196,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(S196,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(T196,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(U196,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(V196,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(W196,use_fish!A:A,use_fish!D:D),0),)</f>
-        <v>75</v>
-      </c>
-      <c r="I196" s="21">
-        <f>SUM(_xlfn.IFNA(LOOKUP(Q196,use_fish!A:A,use_fish!H:H),0),_xlfn.IFNA(LOOKUP(R196,use_fish!A:A,use_fish!H:H),0),_xlfn.IFNA(LOOKUP(S196,use_fish!A:A,use_fish!H:H),0),_xlfn.IFNA(LOOKUP(T196,use_fish!A:A,use_fish!H:H),0),_xlfn.IFNA(LOOKUP(U196,use_fish!A:A,use_fish!H:H),0),_xlfn.IFNA(LOOKUP(V196,use_fish!A:A,use_fish!H:H),0),_xlfn.IFNA(LOOKUP(W196,use_fish!A:A,use_fish!H:H),0),)</f>
-        <v>75</v>
-      </c>
-      <c r="J196" s="23">
-        <f>SUM(_xlfn.IFNA(LOOKUP(Q196,use_fish!A:A,use_fish!J:J),0),_xlfn.IFNA(LOOKUP(R196,use_fish!A:A,use_fish!J:J),0),_xlfn.IFNA(LOOKUP(S196,use_fish!A:A,use_fish!J:J),0),_xlfn.IFNA(LOOKUP(T196,use_fish!A:A,use_fish!J:J),0),_xlfn.IFNA(LOOKUP(U196,use_fish!A:A,use_fish!J:J),0),_xlfn.IFNA(LOOKUP(V196,use_fish!A:A,use_fish!J:J),0),_xlfn.IFNA(LOOKUP(W196,use_fish!A:A,use_fish!J:J),0),)</f>
-        <v>0</v>
-      </c>
-      <c r="Q196" s="24">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="197" spans="1:17" s="21" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A197" s="21">
-        <v>196</v>
-      </c>
-      <c r="B197" s="21">
-        <v>1</v>
-      </c>
-      <c r="C197" s="21" t="s">
-        <v>380</v>
-      </c>
-      <c r="H197" s="21">
-        <f>SUM(_xlfn.IFNA(LOOKUP(Q197,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(R197,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(S197,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(T197,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(U197,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(V197,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(W197,use_fish!A:A,use_fish!D:D),0),)</f>
-        <v>75</v>
-      </c>
-      <c r="I197" s="21">
-        <f>SUM(_xlfn.IFNA(LOOKUP(Q197,use_fish!A:A,use_fish!H:H),0),_xlfn.IFNA(LOOKUP(R197,use_fish!A:A,use_fish!H:H),0),_xlfn.IFNA(LOOKUP(S197,use_fish!A:A,use_fish!H:H),0),_xlfn.IFNA(LOOKUP(T197,use_fish!A:A,use_fish!H:H),0),_xlfn.IFNA(LOOKUP(U197,use_fish!A:A,use_fish!H:H),0),_xlfn.IFNA(LOOKUP(V197,use_fish!A:A,use_fish!H:H),0),_xlfn.IFNA(LOOKUP(W197,use_fish!A:A,use_fish!H:H),0),)</f>
-        <v>75</v>
-      </c>
-      <c r="J197" s="23">
-        <f>SUM(_xlfn.IFNA(LOOKUP(Q197,use_fish!A:A,use_fish!J:J),0),_xlfn.IFNA(LOOKUP(R197,use_fish!A:A,use_fish!J:J),0),_xlfn.IFNA(LOOKUP(S197,use_fish!A:A,use_fish!J:J),0),_xlfn.IFNA(LOOKUP(T197,use_fish!A:A,use_fish!J:J),0),_xlfn.IFNA(LOOKUP(U197,use_fish!A:A,use_fish!J:J),0),_xlfn.IFNA(LOOKUP(V197,use_fish!A:A,use_fish!J:J),0),_xlfn.IFNA(LOOKUP(W197,use_fish!A:A,use_fish!J:J),0),)</f>
-        <v>0</v>
-      </c>
-      <c r="Q197" s="24">
-        <v>170</v>
       </c>
     </row>
   </sheetData>
@@ -7664,7 +7545,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H2:H145 H149 H151:H197">
+  <conditionalFormatting sqref="H2:H145 H149 H151:H193">
     <cfRule type="iconSet" priority="15">
       <iconSet iconSet="5Arrows">
         <cfvo type="percent" val="0"/>
@@ -7675,7 +7556,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I2:I145 I149 I151:I197">
+  <conditionalFormatting sqref="I2:I145 I149 I151:I193">
     <cfRule type="iconSet" priority="14">
       <iconSet iconSet="5Arrows">
         <cfvo type="percent" val="0"/>
@@ -7686,7 +7567,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J2:J145 J149 J151:J197">
+  <conditionalFormatting sqref="J2:J145 J149 J151:J193">
     <cfRule type="iconSet" priority="13">
       <iconSet iconSet="5Arrows">
         <cfvo type="percent" val="0"/>
@@ -7833,11 +7714,11 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:M171"/>
+  <dimension ref="A1:M167"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A152" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M171" sqref="M171"/>
+      <selection pane="bottomLeft" activeCell="E175" sqref="E175"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -13785,7 +13666,7 @@
         <v>200</v>
       </c>
       <c r="E126" s="2">
-        <f t="shared" ref="E126:E171" si="6">1/D126</f>
+        <f t="shared" ref="E126:E162" si="6">1/D126</f>
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="F126" s="3" t="s">
@@ -14042,7 +13923,7 @@
         <v>0</v>
       </c>
       <c r="K131">
-        <f t="shared" ref="K131:K171" si="7">H131</f>
+        <f t="shared" ref="K131:K162" si="7">H131</f>
         <v>93</v>
       </c>
       <c r="L131">
@@ -15506,29 +15387,29 @@
         <v>162</v>
       </c>
       <c r="B163" s="18">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="C163" s="17">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D163">
         <f>LOOKUP(use_fish!B163,base_fish!A:A,base_fish!C:C)+_xlfn.IFNA(INDEX(activity!F:F,MATCH(use_fish!C163,activity!A:A,0)),0)</f>
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="E163" s="2">
-        <f t="shared" si="6"/>
-        <v>1.6666666666666666E-2</v>
+        <f>1/D163</f>
+        <v>1.3333333333333334E-2</v>
       </c>
       <c r="F163" s="3" t="s">
         <v>81</v>
       </c>
       <c r="G163" s="2" t="str">
         <f>INDEX(base_fish!E:E,MATCH(use_fish!B163,base_fish!A:A,0))&amp;_xlfn.IFNA("+"&amp;INDEX(activity!G:G,MATCH(use_fish!C163,activity!A:A,0)),"")</f>
-        <v>大海星+临时活动</v>
+        <v>火鸡鱼+临时活动</v>
       </c>
       <c r="H163">
         <f>LOOKUP(use_fish!B163,base_fish!A:A,base_fish!F:F)+_xlfn.IFNA(INDEX(activity!F:F,MATCH(use_fish!C163,activity!A:A,0)),0)</f>
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="I163">
         <v>1</v>
@@ -15538,8 +15419,8 @@
         <v>0</v>
       </c>
       <c r="K163">
-        <f t="shared" si="7"/>
-        <v>60</v>
+        <f>H163</f>
+        <v>75</v>
       </c>
       <c r="L163">
         <v>1</v>
@@ -15553,29 +15434,29 @@
         <v>163</v>
       </c>
       <c r="B164" s="18">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="C164" s="17">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D164">
         <f>LOOKUP(use_fish!B164,base_fish!A:A,base_fish!C:C)+_xlfn.IFNA(INDEX(activity!F:F,MATCH(use_fish!C164,activity!A:A,0)),0)</f>
-        <v>60</v>
+        <v>150</v>
       </c>
       <c r="E164" s="2">
-        <f t="shared" si="6"/>
-        <v>1.6666666666666666E-2</v>
+        <f>1/D164</f>
+        <v>6.6666666666666671E-3</v>
       </c>
       <c r="F164" s="3" t="s">
         <v>81</v>
       </c>
       <c r="G164" s="2" t="str">
         <f>INDEX(base_fish!E:E,MATCH(use_fish!B164,base_fish!A:A,0))&amp;_xlfn.IFNA("+"&amp;INDEX(activity!G:G,MATCH(use_fish!C164,activity!A:A,0)),"")</f>
-        <v>中海星+临时活动</v>
+        <v>火鸡鱼+临时活动</v>
       </c>
       <c r="H164">
         <f>LOOKUP(use_fish!B164,base_fish!A:A,base_fish!F:F)+_xlfn.IFNA(INDEX(activity!F:F,MATCH(use_fish!C164,activity!A:A,0)),0)</f>
-        <v>60</v>
+        <v>150</v>
       </c>
       <c r="I164">
         <v>1</v>
@@ -15585,8 +15466,8 @@
         <v>0</v>
       </c>
       <c r="K164">
-        <f t="shared" si="7"/>
-        <v>60</v>
+        <f>H164</f>
+        <v>150</v>
       </c>
       <c r="L164">
         <v>1</v>
@@ -15600,29 +15481,29 @@
         <v>164</v>
       </c>
       <c r="B165" s="18">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="C165" s="17">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D165">
         <f>LOOKUP(use_fish!B165,base_fish!A:A,base_fish!C:C)+_xlfn.IFNA(INDEX(activity!F:F,MATCH(use_fish!C165,activity!A:A,0)),0)</f>
-        <v>60</v>
+        <v>250</v>
       </c>
       <c r="E165" s="2">
-        <f t="shared" si="6"/>
-        <v>1.6666666666666666E-2</v>
+        <f>1/D165</f>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="F165" s="3" t="s">
         <v>81</v>
       </c>
       <c r="G165" s="2" t="str">
         <f>INDEX(base_fish!E:E,MATCH(use_fish!B165,base_fish!A:A,0))&amp;_xlfn.IFNA("+"&amp;INDEX(activity!G:G,MATCH(use_fish!C165,activity!A:A,0)),"")</f>
-        <v>小海星+临时活动</v>
+        <v>火鸡鱼+临时活动</v>
       </c>
       <c r="H165">
         <f>LOOKUP(use_fish!B165,base_fish!A:A,base_fish!F:F)+_xlfn.IFNA(INDEX(activity!F:F,MATCH(use_fish!C165,activity!A:A,0)),0)</f>
-        <v>60</v>
+        <v>250</v>
       </c>
       <c r="I165">
         <v>1</v>
@@ -15632,8 +15513,8 @@
         <v>0</v>
       </c>
       <c r="K165">
-        <f t="shared" si="7"/>
-        <v>60</v>
+        <f>H165</f>
+        <v>250</v>
       </c>
       <c r="L165">
         <v>1</v>
@@ -15642,285 +15523,97 @@
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:13" s="21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A166" s="17">
         <v>165</v>
       </c>
-      <c r="B166" s="18">
-        <v>25</v>
-      </c>
-      <c r="C166" s="17">
-        <v>38</v>
-      </c>
-      <c r="D166">
+      <c r="B166" s="23">
+        <v>33</v>
+      </c>
+      <c r="C166" s="22">
+        <v>39</v>
+      </c>
+      <c r="D166" s="21">
         <f>LOOKUP(use_fish!B166,base_fish!A:A,base_fish!C:C)+_xlfn.IFNA(INDEX(activity!F:F,MATCH(use_fish!C166,activity!A:A,0)),0)</f>
-        <v>60</v>
-      </c>
-      <c r="E166" s="2">
-        <f t="shared" si="6"/>
-        <v>1.6666666666666666E-2</v>
-      </c>
-      <c r="F166" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="E166" s="22">
+        <f>1/D166</f>
+        <v>1.3333333333333334E-2</v>
+      </c>
+      <c r="F166" s="23" t="s">
         <v>81</v>
       </c>
-      <c r="G166" s="2" t="str">
+      <c r="G166" s="22" t="str">
         <f>INDEX(base_fish!E:E,MATCH(use_fish!B166,base_fish!A:A,0))&amp;_xlfn.IFNA("+"&amp;INDEX(activity!G:G,MATCH(use_fish!C166,activity!A:A,0)),"")</f>
-        <v>海马+临时活动</v>
-      </c>
-      <c r="H166">
+        <v>话费鱼+话费鱼</v>
+      </c>
+      <c r="H166" s="21">
         <f>LOOKUP(use_fish!B166,base_fish!A:A,base_fish!F:F)+_xlfn.IFNA(INDEX(activity!F:F,MATCH(use_fish!C166,activity!A:A,0)),0)</f>
-        <v>60</v>
-      </c>
-      <c r="I166">
-        <v>1</v>
-      </c>
-      <c r="J166">
+        <v>75</v>
+      </c>
+      <c r="I166" s="21">
+        <v>1</v>
+      </c>
+      <c r="J166" s="21">
         <f>LOOKUP(use_fish!B166,base_fish!A:A,base_fish!G:G)</f>
         <v>0</v>
       </c>
-      <c r="K166">
-        <f t="shared" si="7"/>
-        <v>60</v>
-      </c>
-      <c r="L166">
-        <v>1</v>
-      </c>
-      <c r="M166">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="167" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="K166" s="21">
+        <f>H166</f>
+        <v>75</v>
+      </c>
+      <c r="L166" s="21">
+        <v>1</v>
+      </c>
+      <c r="M166" s="21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="167" spans="1:13" s="21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A167" s="17">
         <v>166</v>
       </c>
-      <c r="B167" s="18">
-        <v>32</v>
-      </c>
-      <c r="C167" s="17">
-        <v>35</v>
-      </c>
-      <c r="D167">
+      <c r="B167" s="23">
+        <v>33</v>
+      </c>
+      <c r="C167" s="22">
+        <v>40</v>
+      </c>
+      <c r="D167" s="21">
         <f>LOOKUP(use_fish!B167,base_fish!A:A,base_fish!C:C)+_xlfn.IFNA(INDEX(activity!F:F,MATCH(use_fish!C167,activity!A:A,0)),0)</f>
         <v>75</v>
       </c>
-      <c r="E167" s="2">
-        <f t="shared" si="6"/>
+      <c r="E167" s="22">
+        <f>1/D167</f>
         <v>1.3333333333333334E-2</v>
       </c>
-      <c r="F167" s="3" t="s">
+      <c r="F167" s="23" t="s">
         <v>81</v>
       </c>
-      <c r="G167" s="2" t="str">
+      <c r="G167" s="22" t="str">
         <f>INDEX(base_fish!E:E,MATCH(use_fish!B167,base_fish!A:A,0))&amp;_xlfn.IFNA("+"&amp;INDEX(activity!G:G,MATCH(use_fish!C167,activity!A:A,0)),"")</f>
-        <v>火鸡鱼+临时活动</v>
-      </c>
-      <c r="H167">
+        <v>话费鱼+话费鱼</v>
+      </c>
+      <c r="H167" s="21">
         <f>LOOKUP(use_fish!B167,base_fish!A:A,base_fish!F:F)+_xlfn.IFNA(INDEX(activity!F:F,MATCH(use_fish!C167,activity!A:A,0)),0)</f>
         <v>75</v>
       </c>
-      <c r="I167">
-        <v>1</v>
-      </c>
-      <c r="J167">
+      <c r="I167" s="21">
+        <v>1</v>
+      </c>
+      <c r="J167" s="21">
         <f>LOOKUP(use_fish!B167,base_fish!A:A,base_fish!G:G)</f>
         <v>0</v>
       </c>
-      <c r="K167">
-        <f t="shared" si="7"/>
+      <c r="K167" s="21">
+        <f>H167</f>
         <v>75</v>
       </c>
-      <c r="L167">
-        <v>1</v>
-      </c>
-      <c r="M167">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="168" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A168" s="17">
-        <v>167</v>
-      </c>
-      <c r="B168" s="18">
-        <v>32</v>
-      </c>
-      <c r="C168" s="17">
-        <v>36</v>
-      </c>
-      <c r="D168">
-        <f>LOOKUP(use_fish!B168,base_fish!A:A,base_fish!C:C)+_xlfn.IFNA(INDEX(activity!F:F,MATCH(use_fish!C168,activity!A:A,0)),0)</f>
-        <v>150</v>
-      </c>
-      <c r="E168" s="2">
-        <f t="shared" si="6"/>
-        <v>6.6666666666666671E-3</v>
-      </c>
-      <c r="F168" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="G168" s="2" t="str">
-        <f>INDEX(base_fish!E:E,MATCH(use_fish!B168,base_fish!A:A,0))&amp;_xlfn.IFNA("+"&amp;INDEX(activity!G:G,MATCH(use_fish!C168,activity!A:A,0)),"")</f>
-        <v>火鸡鱼+临时活动</v>
-      </c>
-      <c r="H168">
-        <f>LOOKUP(use_fish!B168,base_fish!A:A,base_fish!F:F)+_xlfn.IFNA(INDEX(activity!F:F,MATCH(use_fish!C168,activity!A:A,0)),0)</f>
-        <v>150</v>
-      </c>
-      <c r="I168">
-        <v>1</v>
-      </c>
-      <c r="J168">
-        <f>LOOKUP(use_fish!B168,base_fish!A:A,base_fish!G:G)</f>
-        <v>0</v>
-      </c>
-      <c r="K168">
-        <f t="shared" si="7"/>
-        <v>150</v>
-      </c>
-      <c r="L168">
-        <v>1</v>
-      </c>
-      <c r="M168">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="169" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A169" s="17">
-        <v>168</v>
-      </c>
-      <c r="B169" s="18">
-        <v>32</v>
-      </c>
-      <c r="C169" s="17">
-        <v>37</v>
-      </c>
-      <c r="D169">
-        <f>LOOKUP(use_fish!B169,base_fish!A:A,base_fish!C:C)+_xlfn.IFNA(INDEX(activity!F:F,MATCH(use_fish!C169,activity!A:A,0)),0)</f>
-        <v>250</v>
-      </c>
-      <c r="E169" s="2">
-        <f t="shared" si="6"/>
-        <v>4.0000000000000001E-3</v>
-      </c>
-      <c r="F169" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="G169" s="2" t="str">
-        <f>INDEX(base_fish!E:E,MATCH(use_fish!B169,base_fish!A:A,0))&amp;_xlfn.IFNA("+"&amp;INDEX(activity!G:G,MATCH(use_fish!C169,activity!A:A,0)),"")</f>
-        <v>火鸡鱼+临时活动</v>
-      </c>
-      <c r="H169">
-        <f>LOOKUP(use_fish!B169,base_fish!A:A,base_fish!F:F)+_xlfn.IFNA(INDEX(activity!F:F,MATCH(use_fish!C169,activity!A:A,0)),0)</f>
-        <v>250</v>
-      </c>
-      <c r="I169">
-        <v>1</v>
-      </c>
-      <c r="J169">
-        <f>LOOKUP(use_fish!B169,base_fish!A:A,base_fish!G:G)</f>
-        <v>0</v>
-      </c>
-      <c r="K169">
-        <f t="shared" si="7"/>
-        <v>250</v>
-      </c>
-      <c r="L169">
-        <v>1</v>
-      </c>
-      <c r="M169">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="170" spans="1:13" s="21" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A170" s="22">
-        <v>169</v>
-      </c>
-      <c r="B170" s="23">
-        <v>33</v>
-      </c>
-      <c r="C170" s="22">
-        <v>39</v>
-      </c>
-      <c r="D170" s="21">
-        <f>LOOKUP(use_fish!B170,base_fish!A:A,base_fish!C:C)+_xlfn.IFNA(INDEX(activity!F:F,MATCH(use_fish!C170,activity!A:A,0)),0)</f>
-        <v>75</v>
-      </c>
-      <c r="E170" s="22">
-        <f t="shared" si="6"/>
-        <v>1.3333333333333334E-2</v>
-      </c>
-      <c r="F170" s="23" t="s">
-        <v>81</v>
-      </c>
-      <c r="G170" s="22" t="str">
-        <f>INDEX(base_fish!E:E,MATCH(use_fish!B170,base_fish!A:A,0))&amp;_xlfn.IFNA("+"&amp;INDEX(activity!G:G,MATCH(use_fish!C170,activity!A:A,0)),"")</f>
-        <v>话费鱼+话费鱼</v>
-      </c>
-      <c r="H170" s="21">
-        <f>LOOKUP(use_fish!B170,base_fish!A:A,base_fish!F:F)+_xlfn.IFNA(INDEX(activity!F:F,MATCH(use_fish!C170,activity!A:A,0)),0)</f>
-        <v>75</v>
-      </c>
-      <c r="I170" s="21">
-        <v>1</v>
-      </c>
-      <c r="J170" s="21">
-        <f>LOOKUP(use_fish!B170,base_fish!A:A,base_fish!G:G)</f>
-        <v>0</v>
-      </c>
-      <c r="K170" s="21">
-        <f t="shared" si="7"/>
-        <v>75</v>
-      </c>
-      <c r="L170" s="21">
-        <v>1</v>
-      </c>
-      <c r="M170" s="21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="171" spans="1:13" s="21" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A171" s="22">
-        <v>170</v>
-      </c>
-      <c r="B171" s="23">
-        <v>33</v>
-      </c>
-      <c r="C171" s="22">
-        <v>40</v>
-      </c>
-      <c r="D171" s="21">
-        <f>LOOKUP(use_fish!B171,base_fish!A:A,base_fish!C:C)+_xlfn.IFNA(INDEX(activity!F:F,MATCH(use_fish!C171,activity!A:A,0)),0)</f>
-        <v>75</v>
-      </c>
-      <c r="E171" s="22">
-        <f t="shared" si="6"/>
-        <v>1.3333333333333334E-2</v>
-      </c>
-      <c r="F171" s="23" t="s">
-        <v>81</v>
-      </c>
-      <c r="G171" s="22" t="str">
-        <f>INDEX(base_fish!E:E,MATCH(use_fish!B171,base_fish!A:A,0))&amp;_xlfn.IFNA("+"&amp;INDEX(activity!G:G,MATCH(use_fish!C171,activity!A:A,0)),"")</f>
-        <v>话费鱼+话费鱼</v>
-      </c>
-      <c r="H171" s="21">
-        <f>LOOKUP(use_fish!B171,base_fish!A:A,base_fish!F:F)+_xlfn.IFNA(INDEX(activity!F:F,MATCH(use_fish!C171,activity!A:A,0)),0)</f>
-        <v>75</v>
-      </c>
-      <c r="I171" s="21">
-        <v>1</v>
-      </c>
-      <c r="J171" s="21">
-        <f>LOOKUP(use_fish!B171,base_fish!A:A,base_fish!G:G)</f>
-        <v>0</v>
-      </c>
-      <c r="K171" s="21">
-        <f t="shared" si="7"/>
-        <v>75</v>
-      </c>
-      <c r="L171" s="21">
-        <v>1</v>
-      </c>
-      <c r="M171" s="21">
+      <c r="L167" s="21">
+        <v>1</v>
+      </c>
+      <c r="M167" s="21">
         <v>1</v>
       </c>
     </row>
@@ -17011,50 +16704,50 @@
         <v>132</v>
       </c>
     </row>
-    <row r="40" spans="1:7" s="25" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="25">
+    <row r="40" spans="1:7" s="24" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="24">
         <v>39</v>
       </c>
-      <c r="B40" s="25">
+      <c r="B40" s="24">
         <v>9</v>
       </c>
-      <c r="C40" s="25" t="s">
-        <v>381</v>
-      </c>
-      <c r="D40" s="26">
-        <v>1</v>
-      </c>
-      <c r="E40" s="26">
-        <v>1</v>
-      </c>
-      <c r="F40" s="25">
+      <c r="C40" s="24" t="s">
+        <v>377</v>
+      </c>
+      <c r="D40" s="25">
+        <v>1</v>
+      </c>
+      <c r="E40" s="25">
+        <v>1</v>
+      </c>
+      <c r="F40" s="24">
         <v>75</v>
       </c>
-      <c r="G40" s="25" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" s="25" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="25">
+      <c r="G40" s="24" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" s="24" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="24">
         <v>40</v>
       </c>
-      <c r="B41" s="25">
+      <c r="B41" s="24">
         <v>9</v>
       </c>
-      <c r="C41" s="25" t="s">
-        <v>378</v>
-      </c>
-      <c r="D41" s="26">
-        <v>1</v>
-      </c>
-      <c r="E41" s="26">
-        <v>1</v>
-      </c>
-      <c r="F41" s="25">
+      <c r="C41" s="24" t="s">
+        <v>376</v>
+      </c>
+      <c r="D41" s="25">
+        <v>1</v>
+      </c>
+      <c r="E41" s="25">
+        <v>1</v>
+      </c>
+      <c r="F41" s="24">
         <v>75</v>
       </c>
-      <c r="G41" s="25" t="s">
-        <v>377</v>
+      <c r="G41" s="24" t="s">
+        <v>375</v>
       </c>
     </row>
   </sheetData>
@@ -17996,7 +17689,7 @@
         <v>0</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="F34" s="3">
         <v>0</v>

--- a/config_12.01/fish_2d_fish_server.xlsx
+++ b/config_12.01/fish_2d_fish_server.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="group" sheetId="1" r:id="rId1"/>
@@ -1639,11 +1639,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>"jing_bi",0,50,100</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"prop_web_chip_huafei",0,0.02,0.05</t>
+    <t>"prop_web_chip_huafei",10,0.02,0.05</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi",10,50,100</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2126,7 +2126,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:W193"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A169" workbookViewId="0">
+    <sheetView topLeftCell="A169" workbookViewId="0">
       <selection activeCell="K183" sqref="K183"/>
     </sheetView>
   </sheetViews>
@@ -15629,8 +15629,8 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:K41"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="E47" sqref="E47"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D46" sqref="D46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -16712,7 +16712,7 @@
         <v>9</v>
       </c>
       <c r="C40" s="24" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="D40" s="25">
         <v>1</v>
@@ -16735,7 +16735,7 @@
         <v>9</v>
       </c>
       <c r="C41" s="24" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="D41" s="25">
         <v>1</v>

--- a/config_12.01/fish_2d_fish_server.xlsx
+++ b/config_12.01/fish_2d_fish_server.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="group" sheetId="1" r:id="rId1"/>
@@ -302,7 +302,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="649" uniqueCount="376">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="658" uniqueCount="382">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1635,6 +1635,28 @@
   </si>
   <si>
     <t>168,</t>
+  </si>
+  <si>
+    <t>话费鱼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"prop_web_chip_huafei",0,0.025,0.05</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>话费鱼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi",0,50,100</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>169,</t>
+  </si>
+  <si>
+    <t>170,</t>
   </si>
 </sst>
 </file>
@@ -1692,7 +1714,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1714,6 +1736,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1757,7 +1791,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1808,6 +1842,20 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2091,10 +2139,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:W195"/>
+  <dimension ref="A1:W197"/>
   <sheetViews>
-    <sheetView topLeftCell="B169" workbookViewId="0">
-      <selection activeCell="N185" sqref="N185"/>
+    <sheetView tabSelected="1" topLeftCell="A169" workbookViewId="0">
+      <selection activeCell="K193" sqref="K193"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" outlineLevelCol="1" x14ac:dyDescent="0.2"/>
@@ -7551,6 +7599,58 @@
         <v>168</v>
       </c>
     </row>
+    <row r="196" spans="1:17" s="21" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A196" s="21">
+        <v>195</v>
+      </c>
+      <c r="B196" s="21">
+        <v>1</v>
+      </c>
+      <c r="C196" s="21" t="s">
+        <v>380</v>
+      </c>
+      <c r="H196" s="21">
+        <f>SUM(_xlfn.IFNA(LOOKUP(Q196,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(R196,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(S196,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(T196,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(U196,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(V196,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(W196,use_fish!A:A,use_fish!D:D),0),)</f>
+        <v>75</v>
+      </c>
+      <c r="I196" s="21">
+        <f>SUM(_xlfn.IFNA(LOOKUP(Q196,use_fish!A:A,use_fish!H:H),0),_xlfn.IFNA(LOOKUP(R196,use_fish!A:A,use_fish!H:H),0),_xlfn.IFNA(LOOKUP(S196,use_fish!A:A,use_fish!H:H),0),_xlfn.IFNA(LOOKUP(T196,use_fish!A:A,use_fish!H:H),0),_xlfn.IFNA(LOOKUP(U196,use_fish!A:A,use_fish!H:H),0),_xlfn.IFNA(LOOKUP(V196,use_fish!A:A,use_fish!H:H),0),_xlfn.IFNA(LOOKUP(W196,use_fish!A:A,use_fish!H:H),0),)</f>
+        <v>75</v>
+      </c>
+      <c r="J196" s="23">
+        <f>SUM(_xlfn.IFNA(LOOKUP(Q196,use_fish!A:A,use_fish!J:J),0),_xlfn.IFNA(LOOKUP(R196,use_fish!A:A,use_fish!J:J),0),_xlfn.IFNA(LOOKUP(S196,use_fish!A:A,use_fish!J:J),0),_xlfn.IFNA(LOOKUP(T196,use_fish!A:A,use_fish!J:J),0),_xlfn.IFNA(LOOKUP(U196,use_fish!A:A,use_fish!J:J),0),_xlfn.IFNA(LOOKUP(V196,use_fish!A:A,use_fish!J:J),0),_xlfn.IFNA(LOOKUP(W196,use_fish!A:A,use_fish!J:J),0),)</f>
+        <v>0</v>
+      </c>
+      <c r="Q196" s="24">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="197" spans="1:17" s="21" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A197" s="21">
+        <v>196</v>
+      </c>
+      <c r="B197" s="21">
+        <v>1</v>
+      </c>
+      <c r="C197" s="21" t="s">
+        <v>381</v>
+      </c>
+      <c r="H197" s="21">
+        <f>SUM(_xlfn.IFNA(LOOKUP(Q197,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(R197,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(S197,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(T197,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(U197,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(V197,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(W197,use_fish!A:A,use_fish!D:D),0),)</f>
+        <v>75</v>
+      </c>
+      <c r="I197" s="21">
+        <f>SUM(_xlfn.IFNA(LOOKUP(Q197,use_fish!A:A,use_fish!H:H),0),_xlfn.IFNA(LOOKUP(R197,use_fish!A:A,use_fish!H:H),0),_xlfn.IFNA(LOOKUP(S197,use_fish!A:A,use_fish!H:H),0),_xlfn.IFNA(LOOKUP(T197,use_fish!A:A,use_fish!H:H),0),_xlfn.IFNA(LOOKUP(U197,use_fish!A:A,use_fish!H:H),0),_xlfn.IFNA(LOOKUP(V197,use_fish!A:A,use_fish!H:H),0),_xlfn.IFNA(LOOKUP(W197,use_fish!A:A,use_fish!H:H),0),)</f>
+        <v>75</v>
+      </c>
+      <c r="J197" s="23">
+        <f>SUM(_xlfn.IFNA(LOOKUP(Q197,use_fish!A:A,use_fish!J:J),0),_xlfn.IFNA(LOOKUP(R197,use_fish!A:A,use_fish!J:J),0),_xlfn.IFNA(LOOKUP(S197,use_fish!A:A,use_fish!J:J),0),_xlfn.IFNA(LOOKUP(T197,use_fish!A:A,use_fish!J:J),0),_xlfn.IFNA(LOOKUP(U197,use_fish!A:A,use_fish!J:J),0),_xlfn.IFNA(LOOKUP(V197,use_fish!A:A,use_fish!J:J),0),_xlfn.IFNA(LOOKUP(W197,use_fish!A:A,use_fish!J:J),0),)</f>
+        <v>0</v>
+      </c>
+      <c r="Q197" s="24">
+        <v>170</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="I1">
@@ -7564,7 +7664,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H2:H145 H149 H151:H195">
+  <conditionalFormatting sqref="H2:H145 H149 H151:H197">
     <cfRule type="iconSet" priority="15">
       <iconSet iconSet="5Arrows">
         <cfvo type="percent" val="0"/>
@@ -7575,7 +7675,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I2:I145 I149 I151:I195">
+  <conditionalFormatting sqref="I2:I145 I149 I151:I197">
     <cfRule type="iconSet" priority="14">
       <iconSet iconSet="5Arrows">
         <cfvo type="percent" val="0"/>
@@ -7586,7 +7686,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J2:J145 J149 J151:J195">
+  <conditionalFormatting sqref="J2:J145 J149 J151:J197">
     <cfRule type="iconSet" priority="13">
       <iconSet iconSet="5Arrows">
         <cfvo type="percent" val="0"/>
@@ -7733,11 +7833,11 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:M169"/>
+  <dimension ref="A1:M171"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A140" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O171" sqref="O171:O172"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A152" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G172" sqref="G172"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -13685,7 +13785,7 @@
         <v>200</v>
       </c>
       <c r="E126" s="2">
-        <f t="shared" ref="E126:E169" si="6">1/D126</f>
+        <f t="shared" ref="E126:E171" si="6">1/D126</f>
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="F126" s="3" t="s">
@@ -13942,7 +14042,7 @@
         <v>0</v>
       </c>
       <c r="K131">
-        <f t="shared" ref="K131:K169" si="7">H131</f>
+        <f t="shared" ref="K131:K171" si="7">H131</f>
         <v>93</v>
       </c>
       <c r="L131">
@@ -15727,6 +15827,100 @@
         <v>1</v>
       </c>
       <c r="M169">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="170" spans="1:13" s="21" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A170" s="22">
+        <v>169</v>
+      </c>
+      <c r="B170" s="23">
+        <v>33</v>
+      </c>
+      <c r="C170" s="22">
+        <v>39</v>
+      </c>
+      <c r="D170" s="21">
+        <f>LOOKUP(use_fish!B170,base_fish!A:A,base_fish!C:C)+_xlfn.IFNA(INDEX(activity!F:F,MATCH(use_fish!C170,activity!A:A,0)),0)</f>
+        <v>75</v>
+      </c>
+      <c r="E170" s="22">
+        <f t="shared" si="6"/>
+        <v>1.3333333333333334E-2</v>
+      </c>
+      <c r="F170" s="23" t="s">
+        <v>81</v>
+      </c>
+      <c r="G170" s="22" t="str">
+        <f>INDEX(base_fish!E:E,MATCH(use_fish!B170,base_fish!A:A,0))&amp;_xlfn.IFNA("+"&amp;INDEX(activity!G:G,MATCH(use_fish!C170,activity!A:A,0)),"")</f>
+        <v>话费鱼+话费鱼</v>
+      </c>
+      <c r="H170" s="21">
+        <f>LOOKUP(use_fish!B170,base_fish!A:A,base_fish!F:F)+_xlfn.IFNA(INDEX(activity!F:F,MATCH(use_fish!C170,activity!A:A,0)),0)</f>
+        <v>75</v>
+      </c>
+      <c r="I170" s="21">
+        <v>1</v>
+      </c>
+      <c r="J170" s="21">
+        <f>LOOKUP(use_fish!B170,base_fish!A:A,base_fish!G:G)</f>
+        <v>0</v>
+      </c>
+      <c r="K170" s="21">
+        <f t="shared" si="7"/>
+        <v>75</v>
+      </c>
+      <c r="L170" s="21">
+        <v>1</v>
+      </c>
+      <c r="M170" s="21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="171" spans="1:13" s="21" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A171" s="22">
+        <v>170</v>
+      </c>
+      <c r="B171" s="23">
+        <v>33</v>
+      </c>
+      <c r="C171" s="22">
+        <v>40</v>
+      </c>
+      <c r="D171" s="21">
+        <f>LOOKUP(use_fish!B171,base_fish!A:A,base_fish!C:C)+_xlfn.IFNA(INDEX(activity!F:F,MATCH(use_fish!C171,activity!A:A,0)),0)</f>
+        <v>75</v>
+      </c>
+      <c r="E171" s="22">
+        <f t="shared" si="6"/>
+        <v>1.3333333333333334E-2</v>
+      </c>
+      <c r="F171" s="23" t="s">
+        <v>81</v>
+      </c>
+      <c r="G171" s="22" t="str">
+        <f>INDEX(base_fish!E:E,MATCH(use_fish!B171,base_fish!A:A,0))&amp;_xlfn.IFNA("+"&amp;INDEX(activity!G:G,MATCH(use_fish!C171,activity!A:A,0)),"")</f>
+        <v>话费鱼+话费鱼</v>
+      </c>
+      <c r="H171" s="21">
+        <f>LOOKUP(use_fish!B171,base_fish!A:A,base_fish!F:F)+_xlfn.IFNA(INDEX(activity!F:F,MATCH(use_fish!C171,activity!A:A,0)),0)</f>
+        <v>75</v>
+      </c>
+      <c r="I171" s="21">
+        <v>1</v>
+      </c>
+      <c r="J171" s="21">
+        <f>LOOKUP(use_fish!B171,base_fish!A:A,base_fish!G:G)</f>
+        <v>0</v>
+      </c>
+      <c r="K171" s="21">
+        <f t="shared" si="7"/>
+        <v>75</v>
+      </c>
+      <c r="L171" s="21">
+        <v>1</v>
+      </c>
+      <c r="M171" s="21">
         <v>0</v>
       </c>
     </row>
@@ -15740,10 +15934,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:K39"/>
+  <dimension ref="A1:K41"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7:G11"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="G50" sqref="G50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -16815,6 +17009,52 @@
       </c>
       <c r="G39" s="10" t="s">
         <v>132</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" s="25" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="25">
+        <v>39</v>
+      </c>
+      <c r="B40" s="25">
+        <v>9</v>
+      </c>
+      <c r="C40" s="25" t="s">
+        <v>377</v>
+      </c>
+      <c r="D40" s="26">
+        <v>1</v>
+      </c>
+      <c r="E40" s="26">
+        <v>1</v>
+      </c>
+      <c r="F40" s="25">
+        <v>75</v>
+      </c>
+      <c r="G40" s="25" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" s="25" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="25">
+        <v>40</v>
+      </c>
+      <c r="B41" s="25">
+        <v>9</v>
+      </c>
+      <c r="C41" s="25" t="s">
+        <v>379</v>
+      </c>
+      <c r="D41" s="26">
+        <v>1</v>
+      </c>
+      <c r="E41" s="26">
+        <v>1</v>
+      </c>
+      <c r="F41" s="25">
+        <v>75</v>
+      </c>
+      <c r="G41" s="25" t="s">
+        <v>378</v>
       </c>
     </row>
   </sheetData>
@@ -16909,10 +17149,10 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet5"/>
-  <dimension ref="A1:G33"/>
+  <dimension ref="A1:G34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+      <selection activeCell="C38" sqref="C38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -17739,6 +17979,29 @@
         <v>0</v>
       </c>
       <c r="G33" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A34" s="3">
+        <v>33</v>
+      </c>
+      <c r="B34" s="3">
+        <v>1</v>
+      </c>
+      <c r="C34" s="3">
+        <v>0</v>
+      </c>
+      <c r="D34" s="3">
+        <v>0</v>
+      </c>
+      <c r="E34" s="3" t="s">
+        <v>376</v>
+      </c>
+      <c r="F34" s="3">
+        <v>0</v>
+      </c>
+      <c r="G34" s="3">
         <v>0</v>
       </c>
     </row>

--- a/config_12.01/fish_2d_fish_server.xlsx
+++ b/config_12.01/fish_2d_fish_server.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="group" sheetId="1" r:id="rId1"/>
@@ -1641,10 +1641,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>"prop_web_chip_huafei",0,0.025,0.05</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>话费鱼</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1657,6 +1653,10 @@
   </si>
   <si>
     <t>170,</t>
+  </si>
+  <si>
+    <t>"prop_web_chip_huafei",0,0.02,0.05</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -2141,7 +2141,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:W197"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A169" workbookViewId="0">
+    <sheetView topLeftCell="A169" workbookViewId="0">
       <selection activeCell="K193" sqref="K193"/>
     </sheetView>
   </sheetViews>
@@ -7607,7 +7607,7 @@
         <v>1</v>
       </c>
       <c r="C196" s="21" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="H196" s="21">
         <f>SUM(_xlfn.IFNA(LOOKUP(Q196,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(R196,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(S196,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(T196,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(U196,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(V196,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(W196,use_fish!A:A,use_fish!D:D),0),)</f>
@@ -7633,7 +7633,7 @@
         <v>1</v>
       </c>
       <c r="C197" s="21" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="H197" s="21">
         <f>SUM(_xlfn.IFNA(LOOKUP(Q197,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(R197,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(S197,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(T197,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(U197,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(V197,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(W197,use_fish!A:A,use_fish!D:D),0),)</f>
@@ -7835,9 +7835,9 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:M171"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A152" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G172" sqref="G172"/>
+      <selection pane="bottomLeft" activeCell="M171" sqref="M171"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -15874,7 +15874,7 @@
         <v>1</v>
       </c>
       <c r="M170" s="21">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="171" spans="1:13" s="21" customFormat="1" x14ac:dyDescent="0.2">
@@ -15921,7 +15921,7 @@
         <v>1</v>
       </c>
       <c r="M171" s="21">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -15937,13 +15937,13 @@
   <dimension ref="A1:K41"/>
   <sheetViews>
     <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="G50" sqref="G50"/>
+      <selection activeCell="E47" sqref="E47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="13" customWidth="1"/>
-    <col min="3" max="3" width="27.25" customWidth="1"/>
+    <col min="3" max="3" width="29.375" customWidth="1"/>
     <col min="4" max="5" width="16.125" customWidth="1"/>
     <col min="6" max="7" width="15.125" customWidth="1"/>
     <col min="11" max="11" width="12.125" customWidth="1"/>
@@ -17019,7 +17019,7 @@
         <v>9</v>
       </c>
       <c r="C40" s="25" t="s">
-        <v>377</v>
+        <v>381</v>
       </c>
       <c r="D40" s="26">
         <v>1</v>
@@ -17031,7 +17031,7 @@
         <v>75</v>
       </c>
       <c r="G40" s="25" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="41" spans="1:7" s="25" customFormat="1" x14ac:dyDescent="0.2">
@@ -17042,7 +17042,7 @@
         <v>9</v>
       </c>
       <c r="C41" s="25" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="D41" s="26">
         <v>1</v>
@@ -17054,7 +17054,7 @@
         <v>75</v>
       </c>
       <c r="G41" s="25" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
   </sheetData>
